--- a/downloads/replication/language-composition/Snowballing_Corpus_Candidates.xlsx
+++ b/downloads/replication/language-composition/Snowballing_Corpus_Candidates.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Snowballing Candidates" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Snowballing Candidates'!$A$1:$E$204</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Snowballing Candidates'!$A$1:$E$205</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj30LbWCTXG5t5IAcTa8sMaj8/G4A=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+IsDrt+kcu0WXlAVQAPsPwy3DnUDhwXvVEVfHVSv7mY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="549">
   <si>
     <t>id</t>
   </si>
@@ -666,6 +666,15 @@
   </si>
   <si>
     <t>Silver: an extensible attribute grammar system</t>
+  </si>
+  <si>
+    <t>BS-089</t>
+  </si>
+  <si>
+    <t>Johnstone, Adrian and Scott, Elizabeth and van den Brand, Mark</t>
+  </si>
+  <si>
+    <t>Modular grammar specification</t>
   </si>
   <si>
     <t>LCU-001</t>
@@ -1704,7 +1713,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1719,6 +1728,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1999,7 +2020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" hidden="1" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2016,7 +2037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" hidden="1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2033,7 +2054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" hidden="1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2050,7 +2071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" hidden="1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2067,7 +2088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" hidden="1" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2084,7 +2105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" hidden="1" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2101,7 +2122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" hidden="1" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -2118,7 +2139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" ht="12.75" hidden="1" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -2135,7 +2156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" ht="12.75" hidden="1" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" ht="12.75" hidden="1" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2169,7 +2190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" ht="12.75" hidden="1" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2186,7 +2207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" ht="12.75" hidden="1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -2203,7 +2224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" ht="12.75" hidden="1" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -2220,7 +2241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" hidden="1" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -2237,7 +2258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" ht="12.75" hidden="1" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -2254,7 +2275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" ht="12.75" hidden="1" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -2271,7 +2292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" ht="12.75" hidden="1" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -2288,7 +2309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" ht="12.75" hidden="1" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
@@ -2305,7 +2326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" ht="12.75" hidden="1" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
@@ -2322,7 +2343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" ht="12.75" hidden="1" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -2339,7 +2360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" ht="12.75" hidden="1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -2356,7 +2377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" ht="12.75" hidden="1" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -2373,7 +2394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" ht="12.75" hidden="1" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -2390,7 +2411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" ht="12.75" hidden="1" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -2407,7 +2428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" ht="12.75" hidden="1" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
@@ -2424,7 +2445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" ht="12.75" hidden="1" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -2441,7 +2462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" ht="12.75" hidden="1" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -2458,7 +2479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" ht="12.75" hidden="1" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -2475,7 +2496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" ht="12.75" hidden="1" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -2492,7 +2513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" ht="12.75" hidden="1" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -2509,7 +2530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" ht="12.75" hidden="1" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>104</v>
       </c>
@@ -2526,7 +2547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" ht="12.75" hidden="1" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
@@ -2554,7 +2575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" ht="12.75" hidden="1" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -2565,7 +2586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" ht="12.75" hidden="1" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>114</v>
       </c>
@@ -2576,7 +2597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" ht="12.75" hidden="1" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>116</v>
       </c>
@@ -2587,7 +2608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" ht="12.75" hidden="1" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -2605,7 +2626,7 @@
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" ht="12.75" hidden="1" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -2621,7 +2642,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" ht="12.75" hidden="1" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -2637,7 +2658,7 @@
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" ht="12.75" hidden="1" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
@@ -2653,7 +2674,7 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" ht="12.75" hidden="1" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -2669,7 +2690,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" ht="12.75" hidden="1" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>130</v>
       </c>
@@ -2685,7 +2706,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" ht="12.75" hidden="1" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>132</v>
       </c>
@@ -2701,7 +2722,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" ht="12.75" hidden="1" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>134</v>
       </c>
@@ -2717,7 +2738,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" ht="12.75" hidden="1" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>136</v>
       </c>
@@ -2733,7 +2754,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" ht="12.75" hidden="1" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>138</v>
       </c>
@@ -2749,7 +2770,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" ht="12.75" hidden="1" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>140</v>
       </c>
@@ -2765,7 +2786,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" ht="12.75" hidden="1" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
@@ -2781,7 +2802,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" ht="12.75" hidden="1" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>144</v>
       </c>
@@ -2797,7 +2818,7 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" ht="12.75" hidden="1" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>146</v>
       </c>
@@ -2813,7 +2834,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" ht="12.75" hidden="1" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>147</v>
       </c>
@@ -2829,7 +2850,7 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" ht="12.75" hidden="1" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>149</v>
       </c>
@@ -2845,7 +2866,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" ht="12.75" hidden="1" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>151</v>
       </c>
@@ -2861,7 +2882,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" ht="12.75" hidden="1" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>153</v>
       </c>
@@ -2877,7 +2898,7 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" ht="12.75" hidden="1" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>155</v>
       </c>
@@ -2893,7 +2914,7 @@
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" ht="12.75" hidden="1" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>158</v>
       </c>
@@ -2909,7 +2930,7 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" ht="12.75" hidden="1" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>159</v>
       </c>
@@ -2925,7 +2946,7 @@
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" ht="12.75" hidden="1" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>161</v>
       </c>
@@ -2941,7 +2962,7 @@
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" ht="12.75" hidden="1" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>162</v>
       </c>
@@ -2957,7 +2978,7 @@
       </c>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" ht="12.75" hidden="1" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>165</v>
       </c>
@@ -2973,7 +2994,7 @@
       </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" ht="12.75" hidden="1" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>167</v>
       </c>
@@ -2989,7 +3010,7 @@
       </c>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" ht="12.75" hidden="1" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>168</v>
       </c>
@@ -3005,7 +3026,7 @@
       </c>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" ht="12.75" hidden="1" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>170</v>
       </c>
@@ -3021,7 +3042,7 @@
       </c>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" ht="12.75" hidden="1" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>172</v>
       </c>
@@ -3037,7 +3058,7 @@
       </c>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" ht="12.75" hidden="1" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>174</v>
       </c>
@@ -3053,7 +3074,7 @@
       </c>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" ht="12.75" hidden="1" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>176</v>
       </c>
@@ -3069,7 +3090,7 @@
       </c>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" ht="12.75" hidden="1" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>178</v>
       </c>
@@ -3085,7 +3106,7 @@
       </c>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" ht="12.75" hidden="1" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>180</v>
       </c>
@@ -3101,7 +3122,7 @@
       </c>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" ht="12.75" hidden="1" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>182</v>
       </c>
@@ -3117,7 +3138,7 @@
       </c>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" ht="12.75" hidden="1" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>184</v>
       </c>
@@ -3133,7 +3154,7 @@
       </c>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" ht="12.75" hidden="1" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>186</v>
       </c>
@@ -3149,7 +3170,7 @@
       </c>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" ht="12.75" hidden="1" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>188</v>
       </c>
@@ -3165,7 +3186,7 @@
       </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" ht="12.75" hidden="1" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>190</v>
       </c>
@@ -3181,7 +3202,7 @@
       </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" ht="12.75" hidden="1" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>192</v>
       </c>
@@ -3197,7 +3218,7 @@
       </c>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" ht="12.75" hidden="1" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>194</v>
       </c>
@@ -3213,7 +3234,7 @@
       </c>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" ht="12.75" hidden="1" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>196</v>
       </c>
@@ -3229,7 +3250,7 @@
       </c>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" ht="12.75" hidden="1" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>198</v>
       </c>
@@ -3245,7 +3266,7 @@
       </c>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" ht="12.75" hidden="1" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>199</v>
       </c>
@@ -3261,7 +3282,7 @@
       </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" ht="12.75" hidden="1" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>201</v>
       </c>
@@ -3277,7 +3298,7 @@
       </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" ht="12.75" hidden="1" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>203</v>
       </c>
@@ -3293,7 +3314,7 @@
       </c>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" ht="12.75" hidden="1" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>204</v>
       </c>
@@ -3309,7 +3330,7 @@
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" ht="12.75" hidden="1" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>206</v>
       </c>
@@ -3325,7 +3346,7 @@
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" ht="12.75" hidden="1" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>208</v>
       </c>
@@ -3341,7 +3362,7 @@
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" ht="12.75" hidden="1" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>210</v>
       </c>
@@ -3357,7 +3378,7 @@
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" ht="12.75" hidden="1" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>212</v>
       </c>
@@ -3373,7 +3394,7 @@
       </c>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" ht="12.75" hidden="1" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>214</v>
       </c>
@@ -3393,1958 +3414,1975 @@
       <c r="A90" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="10">
+        <v>2014.0</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" ht="12.75" hidden="1" customHeight="1">
+      <c r="A91" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="7" t="s">
+      <c r="B91" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="D91" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="E91" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" ht="12.75" hidden="1" customHeight="1">
+      <c r="A92" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="B92" s="11" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="7" t="s">
+      <c r="C92" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="D92" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="E92" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D92" s="8" t="s">
+    </row>
+    <row r="93" ht="12.75" hidden="1" customHeight="1">
+      <c r="A93" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="7" t="s">
+      <c r="B93" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="C93" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="D93" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="7" t="s">
+      <c r="E93" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" ht="12.75" hidden="1" customHeight="1">
+      <c r="A94" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" ht="12.75" hidden="1" customHeight="1">
+      <c r="A95" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E94" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="7" t="s">
+      <c r="B95" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="C95" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="D95" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="E95" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" ht="12.75" hidden="1" customHeight="1">
+      <c r="A96" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="7" t="s">
+      <c r="B96" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="C96" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="D96" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="7" t="s">
+      <c r="E96" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" ht="12.75" hidden="1" customHeight="1">
+      <c r="A97" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" ht="12.75" hidden="1" customHeight="1">
+      <c r="A98" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="7" t="s">
+      <c r="B98" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="C98" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="D98" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="E98" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" ht="12.75" hidden="1" customHeight="1">
+      <c r="A99" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="7" t="s">
+      <c r="B99" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="C99" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="D99" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="E99" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" ht="12.75" hidden="1" customHeight="1">
+      <c r="A100" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="7" t="s">
+      <c r="B100" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="D100" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="7" t="s">
+      <c r="E100" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" ht="12.75" hidden="1" customHeight="1">
+      <c r="A101" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E101" s="7" t="s">
+      <c r="D101" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" ht="12.75" customHeight="1">
+      <c r="A102" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C102" s="7" t="s">
+    <row r="103" ht="12.75" hidden="1" customHeight="1">
+      <c r="A103" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" ht="12.75" hidden="1" customHeight="1">
+      <c r="A104" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="7" t="s">
+      <c r="B104" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="C104" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="D104" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="7" t="s">
+      <c r="E104" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" ht="12.75" hidden="1" customHeight="1">
+      <c r="A105" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E105" s="9" t="s">
+      <c r="D105" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" ht="12.75" hidden="1" customHeight="1">
+      <c r="A106" s="11" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="7" t="s">
+      <c r="B106" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E106" s="7" t="s">
+      <c r="D106" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" ht="12.75" customHeight="1">
+      <c r="A107" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="7" t="s">
+    <row r="108" ht="12.75" hidden="1" customHeight="1">
+      <c r="A108" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" ht="12.75" hidden="1" customHeight="1">
+      <c r="A109" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" ht="12.75" hidden="1" customHeight="1">
+      <c r="A110" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" ht="12.75" hidden="1" customHeight="1">
+      <c r="A111" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" ht="12.75" hidden="1" customHeight="1">
+      <c r="A112" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" ht="12.75" hidden="1" customHeight="1">
+      <c r="A113" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" ht="12.75" hidden="1" customHeight="1">
+      <c r="A114" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" ht="12.75" hidden="1" customHeight="1">
+      <c r="A115" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" ht="12.75" hidden="1" customHeight="1">
+      <c r="A116" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" ht="12.75" hidden="1" customHeight="1">
+      <c r="A117" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" ht="12.75" hidden="1" customHeight="1">
+      <c r="A118" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" ht="12.75" hidden="1" customHeight="1">
+      <c r="A119" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" ht="12.75" hidden="1" customHeight="1">
+      <c r="A120" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" ht="12.75" customHeight="1">
+      <c r="A121" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" ht="12.75" hidden="1" customHeight="1">
+      <c r="A122" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" ht="12.75" hidden="1" customHeight="1">
+      <c r="A123" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" ht="12.75" hidden="1" customHeight="1">
+      <c r="A124" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" ht="12.75" hidden="1" customHeight="1">
+      <c r="A125" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" ht="12.75" hidden="1" customHeight="1">
+      <c r="A126" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" ht="12.75" hidden="1" customHeight="1">
+      <c r="A127" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" ht="12.75" hidden="1" customHeight="1">
+      <c r="A128" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" ht="12.75" hidden="1" customHeight="1">
+      <c r="A129" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" ht="12.75" hidden="1" customHeight="1">
+      <c r="A130" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" ht="12.75" hidden="1" customHeight="1">
+      <c r="A131" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" ht="12.75" customHeight="1">
+      <c r="A132" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" ht="12.75" hidden="1" customHeight="1">
+      <c r="A133" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" ht="12.75" hidden="1" customHeight="1">
+      <c r="A134" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" ht="12.75" hidden="1" customHeight="1">
+      <c r="A135" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" ht="12.75" hidden="1" customHeight="1">
+      <c r="A136" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="137" ht="12.75" hidden="1" customHeight="1">
+      <c r="A137" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" ht="12.75" hidden="1" customHeight="1">
+      <c r="A138" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" ht="12.75" hidden="1" customHeight="1">
+      <c r="A139" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" ht="12.75" hidden="1" customHeight="1">
+      <c r="A140" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" ht="12.75" hidden="1" customHeight="1">
+      <c r="A141" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" ht="12.75" hidden="1" customHeight="1">
+      <c r="A142" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" ht="12.75" hidden="1" customHeight="1">
+      <c r="A143" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" ht="12.75" hidden="1" customHeight="1">
+      <c r="A144" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" ht="12.75" hidden="1" customHeight="1">
+      <c r="A145" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" ht="12.75" hidden="1" customHeight="1">
+      <c r="A146" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" ht="12.75" hidden="1" customHeight="1">
+      <c r="A147" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" ht="12.75" customHeight="1">
+      <c r="A148" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" ht="12.75" hidden="1" customHeight="1">
+      <c r="A149" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" ht="12.75" hidden="1" customHeight="1">
+      <c r="A150" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" ht="12.75" hidden="1" customHeight="1">
+      <c r="A151" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" ht="12.75" hidden="1" customHeight="1">
+      <c r="A152" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" ht="12.75" hidden="1" customHeight="1">
+      <c r="A153" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" ht="12.75" hidden="1" customHeight="1">
+      <c r="A154" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" ht="12.75" hidden="1" customHeight="1">
+      <c r="A155" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" ht="12.75" hidden="1" customHeight="1">
+      <c r="A156" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" ht="12.75" hidden="1" customHeight="1">
+      <c r="A157" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" ht="12.75" hidden="1" customHeight="1">
+      <c r="A158" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" ht="12.75" hidden="1" customHeight="1">
+      <c r="A159" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" ht="12.75" hidden="1" customHeight="1">
+      <c r="A160" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" ht="12.75" hidden="1" customHeight="1">
+      <c r="A161" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" ht="12.75" hidden="1" customHeight="1">
+      <c r="A162" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" ht="12.75" hidden="1" customHeight="1">
+      <c r="A163" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" ht="12.75" hidden="1" customHeight="1">
+      <c r="A164" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" ht="12.75" hidden="1" customHeight="1">
+      <c r="A165" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" ht="12.75" hidden="1" customHeight="1">
+      <c r="A166" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" ht="12.75" hidden="1" customHeight="1">
+      <c r="A167" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" ht="12.75" hidden="1" customHeight="1">
+      <c r="A168" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" ht="12.75" customHeight="1">
+      <c r="A169" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" ht="12.75" hidden="1" customHeight="1">
+      <c r="A170" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" ht="12.75" hidden="1" customHeight="1">
+      <c r="A171" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" ht="12.75" hidden="1" customHeight="1">
+      <c r="A172" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" ht="12.75" hidden="1" customHeight="1">
+      <c r="A173" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" ht="12.75" hidden="1" customHeight="1">
+      <c r="A174" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" ht="12.75" hidden="1" customHeight="1">
+      <c r="A175" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" ht="12.75" hidden="1" customHeight="1">
+      <c r="A176" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" ht="12.75" hidden="1" customHeight="1">
+      <c r="A177" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" ht="12.75" hidden="1" customHeight="1">
+      <c r="A178" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" ht="12.75" customHeight="1">
+      <c r="A179" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" ht="12.75" hidden="1" customHeight="1">
+      <c r="A180" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" ht="12.75" hidden="1" customHeight="1">
+      <c r="A181" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" ht="12.75" hidden="1" customHeight="1">
+      <c r="A182" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" ht="12.75" hidden="1" customHeight="1">
+      <c r="A183" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" ht="12.75" hidden="1" customHeight="1">
+      <c r="A184" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" ht="12.75" hidden="1" customHeight="1">
+      <c r="A185" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="186" ht="12.75" hidden="1" customHeight="1">
+      <c r="A186" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" ht="12.75" hidden="1" customHeight="1">
+      <c r="A187" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" ht="12.75" hidden="1" customHeight="1">
+      <c r="A188" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" ht="12.75" hidden="1" customHeight="1">
+      <c r="A189" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" ht="12.75" hidden="1" customHeight="1">
+      <c r="A190" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" ht="12.75" hidden="1" customHeight="1">
+      <c r="A191" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" ht="12.75" hidden="1" customHeight="1">
+      <c r="A192" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" ht="12.75" hidden="1" customHeight="1">
+      <c r="A193" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" ht="12.75" hidden="1" customHeight="1">
+      <c r="A194" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" ht="12.75" hidden="1" customHeight="1">
+      <c r="A195" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" ht="12.75" hidden="1" customHeight="1">
+      <c r="A196" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" ht="12.75" hidden="1" customHeight="1">
+      <c r="A197" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" ht="12.75" hidden="1" customHeight="1">
+      <c r="A198" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" ht="12.75" hidden="1" customHeight="1">
+      <c r="A199" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" ht="12.75" hidden="1" customHeight="1">
+      <c r="A200" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" ht="12.75" hidden="1" customHeight="1">
+      <c r="A201" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E201" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C112" s="7" t="s">
+    </row>
+    <row r="202" ht="12.75" hidden="1" customHeight="1">
+      <c r="A202" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" ht="12.75" hidden="1" customHeight="1">
+      <c r="A203" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" ht="12.75" hidden="1" customHeight="1">
+      <c r="A204" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="D204" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B139" s="7" t="s">
+      <c r="E204" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" ht="12.75" hidden="1" customHeight="1">
+      <c r="A205" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B205" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="157" ht="12.75" customHeight="1">
-      <c r="A157" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" ht="12.75" customHeight="1">
-      <c r="A158" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="159" ht="12.75" customHeight="1">
-      <c r="A159" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="160" ht="12.75" customHeight="1">
-      <c r="A160" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" ht="12.75" customHeight="1">
-      <c r="A161" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" ht="12.75" customHeight="1">
-      <c r="A166" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="167" ht="12.75" customHeight="1">
-      <c r="A167" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" ht="12.75" customHeight="1">
-      <c r="A168" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" ht="12.75" customHeight="1">
-      <c r="A169" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" ht="12.75" customHeight="1">
-      <c r="A170" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="171" ht="12.75" customHeight="1">
-      <c r="A171" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" ht="12.75" customHeight="1">
-      <c r="A172" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" ht="12.75" customHeight="1">
-      <c r="A173" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" ht="12.75" customHeight="1">
-      <c r="A174" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" ht="12.75" customHeight="1">
-      <c r="A175" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="176" ht="12.75" customHeight="1">
-      <c r="A176" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177" ht="12.75" customHeight="1">
-      <c r="A177" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" ht="12.75" customHeight="1">
-      <c r="A178" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" ht="12.75" customHeight="1">
-      <c r="A179" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" ht="12.75" customHeight="1">
-      <c r="A180" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" ht="12.75" customHeight="1">
-      <c r="A181" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="182" ht="12.75" customHeight="1">
-      <c r="A182" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="183" ht="12.75" customHeight="1">
-      <c r="A183" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="184" ht="12.75" customHeight="1">
-      <c r="A184" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="185" ht="12.75" customHeight="1">
-      <c r="A185" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" ht="12.75" customHeight="1">
-      <c r="A186" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="187" ht="12.75" customHeight="1">
-      <c r="A187" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" ht="12.75" customHeight="1">
-      <c r="A188" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" ht="12.75" customHeight="1">
-      <c r="A189" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="190" ht="12.75" customHeight="1">
-      <c r="A190" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191" ht="12.75" customHeight="1">
-      <c r="A191" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="192" ht="12.75" customHeight="1">
-      <c r="A192" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="193" ht="12.75" customHeight="1">
-      <c r="A193" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="194" ht="12.75" customHeight="1">
-      <c r="A194" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="195" ht="12.75" customHeight="1">
-      <c r="A195" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="196" ht="12.75" customHeight="1">
-      <c r="A196" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="197" ht="12.75" customHeight="1">
-      <c r="A197" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" ht="12.75" customHeight="1">
-      <c r="A198" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" ht="12.75" customHeight="1">
-      <c r="A199" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="200" ht="12.75" customHeight="1">
-      <c r="A200" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="201" ht="12.75" customHeight="1">
-      <c r="A201" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" ht="12.75" customHeight="1">
-      <c r="A202" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="203" ht="12.75" customHeight="1">
-      <c r="A203" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" ht="12.75" customHeight="1">
-      <c r="A204" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C204" s="7" t="s">
+      <c r="C205" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D204" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" ht="12.75" customHeight="1"/>
+      <c r="D205" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="206" ht="12.75" customHeight="1"/>
     <row r="207" ht="12.75" customHeight="1"/>
     <row r="208" ht="12.75" customHeight="1"/>
@@ -6133,8 +6171,15 @@
     <row r="991" ht="12.75" customHeight="1"/>
     <row r="992" ht="12.75" customHeight="1"/>
     <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$E$204"/>
+  <autoFilter ref="$A$1:$E$205">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Relevant"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.787401575"/>
   <pageSetup paperSize="9" orientation="portrait"/>
